--- a/Users Loads18.xlsx
+++ b/Users Loads18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.910219331166641</v>
+        <v>0.4888312888103253</v>
       </c>
       <c r="C2" t="n">
-        <v>3.462961761350768</v>
+        <v>10.60010625857108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.287129141126845</v>
+        <v>0.352145895533345</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.044939395599076</v>
+        <v>2.906137252974687</v>
       </c>
       <c r="C3" t="n">
-        <v>3.171235709147368</v>
+        <v>8.068242127192731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.257965836351108</v>
+        <v>0.3725639536036651</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.932149234160542</v>
+        <v>11.66683042660171</v>
       </c>
       <c r="C4" t="n">
-        <v>4.210414408821163</v>
+        <v>8.144248593050696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2483413875062222</v>
+        <v>0.5419829020181913</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.896165628026374</v>
+        <v>12.50184438779694</v>
       </c>
       <c r="C5" t="n">
-        <v>5.889207125958056</v>
+        <v>9.829302787186615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4008908618886411</v>
+        <v>0.4737245745413873</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.852602972983286</v>
+        <v>12.79808921698587</v>
       </c>
       <c r="C6" t="n">
-        <v>4.35262470237933</v>
+        <v>2.688870882330389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6643195733057282</v>
+        <v>0.2906711956599948</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.45513097827384</v>
+        <v>14.00946971479851</v>
       </c>
       <c r="C7" t="n">
-        <v>5.516731807571114</v>
+        <v>9.42868542597693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4594577598771574</v>
+        <v>0.3182341420614395</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.55074194985334</v>
+        <v>14.99314391055344</v>
       </c>
       <c r="C8" t="n">
-        <v>9.669282262689626</v>
+        <v>3.375311971255466</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6511659801949489</v>
+        <v>0.3565476901218625</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.17512956508783</v>
+        <v>16.06664349887699</v>
       </c>
       <c r="C9" t="n">
-        <v>4.727984963604877</v>
+        <v>9.319756150319838</v>
       </c>
       <c r="D9" t="n">
-        <v>0.43302211690458</v>
+        <v>0.2899202133750565</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.75959518027053</v>
+        <v>16.6136942598863</v>
       </c>
       <c r="C10" t="n">
-        <v>1.465577881150676</v>
+        <v>8.884209730721583</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4155306360398849</v>
+        <v>0.5841530564996082</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.70059258522495</v>
+        <v>18.1834836112188</v>
       </c>
       <c r="C11" t="n">
-        <v>5.616196413466942</v>
+        <v>5.933082766285565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5059039144395351</v>
+        <v>0.3213105890249707</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16.45990542644983</v>
+        <v>18.20352863256892</v>
       </c>
       <c r="C12" t="n">
-        <v>5.309492316663907</v>
+        <v>4.701299635436542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5845226482932818</v>
+        <v>0.2380471298609644</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17.97422064023542</v>
+        <v>19.12928756216963</v>
       </c>
       <c r="C13" t="n">
-        <v>3.363842813082849</v>
+        <v>3.163399245638294</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5519443031119543</v>
+        <v>0.191137246592425</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.48822113375556</v>
+        <v>21.78109918078738</v>
       </c>
       <c r="C14" t="n">
-        <v>3.046939729579465</v>
+        <v>8.067716179149006</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4333138731336602</v>
+        <v>0.3889415946448254</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1571808933834</v>
+        <v>22.15649217238406</v>
       </c>
       <c r="C15" t="n">
-        <v>2.509242590398838</v>
+        <v>3.115544712682339</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3879979169935076</v>
+        <v>0.09599027372676727</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22.23270020673841</v>
+        <v>24.18528855354807</v>
       </c>
       <c r="C16" t="n">
-        <v>7.167329518882956</v>
+        <v>3.144132066629763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5025380917070003</v>
+        <v>0.4319827003963136</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.92318978469042</v>
+        <v>24.61873346638815</v>
       </c>
       <c r="C17" t="n">
-        <v>1.376804528610435</v>
+        <v>6.990756853310047</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3666461027488611</v>
+        <v>0.4112468725045619</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.4583322884609</v>
+        <v>25.67223196349775</v>
       </c>
       <c r="C18" t="n">
-        <v>2.809209290425522</v>
+        <v>5.299650200538485</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2570885946297171</v>
+        <v>0.4424921878749496</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.62325167832639</v>
+        <v>29.09072372291985</v>
       </c>
       <c r="C19" t="n">
-        <v>9.251139446843933</v>
+        <v>5.635746952065775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5413669922778155</v>
+        <v>0.272369193905932</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.04892229437202</v>
+        <v>32.77790222005979</v>
       </c>
       <c r="C20" t="n">
-        <v>3.638378079591633</v>
+        <v>4.155570258962764</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6291296326782367</v>
+        <v>0.3439461028468908</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.37455831667826</v>
+        <v>34.24836179244008</v>
       </c>
       <c r="C21" t="n">
-        <v>4.561181485296591</v>
+        <v>6.500338125217295</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6292512671064538</v>
+        <v>0.4515966554132665</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.14482740397754</v>
+        <v>34.71222950479996</v>
       </c>
       <c r="C22" t="n">
-        <v>5.981974992269284</v>
+        <v>5.340618204645274</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5814379996812382</v>
+        <v>0.123421784852416</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.68952874335476</v>
+        <v>35.7626588922536</v>
       </c>
       <c r="C23" t="n">
-        <v>7.886219957620797</v>
+        <v>1.725256202419071</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5879733272380725</v>
+        <v>0.1884774427772702</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.79914603470107</v>
+        <v>36.09906851562886</v>
       </c>
       <c r="C24" t="n">
-        <v>4.835386214259456</v>
+        <v>6.799630263472926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3420763497568558</v>
+        <v>0.370408200297886</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32.88369633625685</v>
+        <v>36.91864259205127</v>
       </c>
       <c r="C25" t="n">
-        <v>6.208573015990241</v>
+        <v>4.768695556575286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4094220207682875</v>
+        <v>0.1700127894672394</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.43285168400767</v>
+        <v>37.99183095662227</v>
       </c>
       <c r="C26" t="n">
-        <v>1.557829127511545</v>
+        <v>2.18242236186031</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2134708794141024</v>
+        <v>0.1769441171491952</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35.32738106915185</v>
+        <v>39.13289613735797</v>
       </c>
       <c r="C27" t="n">
-        <v>2.717636464280052</v>
+        <v>3.393134129933715</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3581105991214578</v>
+        <v>0.3389865606335907</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>37.50284161301826</v>
+        <v>40.58043920021429</v>
       </c>
       <c r="C28" t="n">
-        <v>5.298041426636853</v>
+        <v>11.29726604490777</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6310871313309422</v>
+        <v>0.2644391152271641</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38.9208961795611</v>
+        <v>41.83777885416638</v>
       </c>
       <c r="C29" t="n">
-        <v>6.414678161078013</v>
+        <v>2.06282610128757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7360162915392523</v>
+        <v>0.3217286135663716</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.89020480214396</v>
+        <v>45.56543590497258</v>
       </c>
       <c r="C30" t="n">
-        <v>7.739557095794693</v>
+        <v>3.681225714828773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.438489281365983</v>
+        <v>0.221882540961742</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.51851846923817</v>
+        <v>48.02332895734645</v>
       </c>
       <c r="C31" t="n">
-        <v>5.218114754816157</v>
+        <v>8.082413493477572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4350180448164967</v>
+        <v>0.2125419659065418</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.80938461258707</v>
+        <v>49.09366217095567</v>
       </c>
       <c r="C32" t="n">
-        <v>1.349785374853515</v>
+        <v>8.940582288998236</v>
       </c>
       <c r="D32" t="n">
-        <v>0.441387241251735</v>
+        <v>0.5525761639167821</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41.49405753713678</v>
+        <v>50.85855266950907</v>
       </c>
       <c r="C33" t="n">
-        <v>2.451319859875353</v>
+        <v>11.38796317369254</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6159502170413266</v>
+        <v>0.4661672637482788</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.57519501082493</v>
+        <v>51.16702625551898</v>
       </c>
       <c r="C34" t="n">
-        <v>7.823079762913098</v>
+        <v>7.291108747683842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2042319060561428</v>
+        <v>0.4142289337496826</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>42.16178675844686</v>
+        <v>52.49550892792255</v>
       </c>
       <c r="C35" t="n">
-        <v>4.778042717139182</v>
+        <v>5.694602696644267</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4372024747841429</v>
+        <v>0.1120109798942615</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.56853643091765</v>
+        <v>53.64948697478355</v>
       </c>
       <c r="C36" t="n">
-        <v>2.414022360032672</v>
+        <v>11.52814663557655</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3916285106528278</v>
+        <v>0.5879585933270438</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>45.82356341847657</v>
+        <v>55.54703691822863</v>
       </c>
       <c r="C37" t="n">
-        <v>3.036430303216605</v>
+        <v>7.941401520844873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2315826119371862</v>
+        <v>0.421198045850749</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>45.84986098503821</v>
+        <v>57.08564625153684</v>
       </c>
       <c r="C38" t="n">
-        <v>4.131664980635237</v>
+        <v>6.253339785154306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2603633830724706</v>
+        <v>0.2494908980792365</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>46.2367518580258</v>
+        <v>58.08871589024456</v>
       </c>
       <c r="C39" t="n">
-        <v>7.104707538486132</v>
+        <v>5.952481088928724</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6788023427930714</v>
+        <v>0.3903884738122671</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46.53479009436796</v>
+        <v>62.07562711195703</v>
       </c>
       <c r="C40" t="n">
-        <v>4.894182094798527</v>
+        <v>6.353640523077572</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6712340492494393</v>
+        <v>0.2832735005002246</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47.38228904696755</v>
+        <v>66.27158800431536</v>
       </c>
       <c r="C41" t="n">
-        <v>5.130074139156727</v>
+        <v>7.39063929322382</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6727087874562886</v>
+        <v>0.312829063769376</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.69102107244897</v>
+        <v>67.54340522421928</v>
       </c>
       <c r="C42" t="n">
-        <v>5.079352844131307</v>
+        <v>7.384779482792844</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5144952813709727</v>
+        <v>0.28783088442554</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>48.27818704377629</v>
+        <v>68.00972776254733</v>
       </c>
       <c r="C43" t="n">
-        <v>2.288732663942904</v>
+        <v>4.800204628056124</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2636538615654803</v>
+        <v>0.5931924401131148</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>48.6718905496179</v>
+        <v>69.21662699235559</v>
       </c>
       <c r="C44" t="n">
-        <v>5.973359783895297</v>
+        <v>5.60507404456588</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6770578631303912</v>
+        <v>0.3420538276789344</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>48.74082257096613</v>
+        <v>69.89745170750773</v>
       </c>
       <c r="C45" t="n">
-        <v>7.794280374124918</v>
+        <v>8.864668592398063</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5585886970620855</v>
+        <v>0.3614447108066127</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>49.64351139405296</v>
+        <v>70.15897405295692</v>
       </c>
       <c r="C46" t="n">
-        <v>5.020894654498292</v>
+        <v>12.80554616322388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3820667575801983</v>
+        <v>0.2385726405327631</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>50.04854090390743</v>
+        <v>72.13624166707859</v>
       </c>
       <c r="C47" t="n">
-        <v>2.091548707535925</v>
+        <v>11.70522182346514</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2195281151879004</v>
+        <v>0.2297203736813036</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>50.7636786269332</v>
+        <v>73.13294683597239</v>
       </c>
       <c r="C48" t="n">
-        <v>6.710116999301942</v>
+        <v>8.50980946914567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8817197388963535</v>
+        <v>0.5232322515144339</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50.83738066612568</v>
+        <v>73.28122879724377</v>
       </c>
       <c r="C49" t="n">
-        <v>5.272724188053436</v>
+        <v>1.677354762370689</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6411645103466811</v>
+        <v>0.07517617484031561</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>52.65908806588662</v>
+        <v>75.28942543946425</v>
       </c>
       <c r="C50" t="n">
-        <v>8.378291226438035</v>
+        <v>11.47921336745902</v>
       </c>
       <c r="D50" t="n">
-        <v>0.436870377204846</v>
+        <v>0.4738786108996895</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53.19596775160451</v>
+        <v>76.31925254605474</v>
       </c>
       <c r="C51" t="n">
-        <v>2.253579178399901</v>
+        <v>3.005776415470423</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2818220308917734</v>
+        <v>0.1628108231837908</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.84142306370309</v>
+        <v>77.12741478443503</v>
       </c>
       <c r="C52" t="n">
-        <v>2.634841240899025</v>
+        <v>9.777013305213295</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3078043092259633</v>
+        <v>0.4041164601308443</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>54.3943090792833</v>
+        <v>79.98400259729311</v>
       </c>
       <c r="C53" t="n">
-        <v>2.873757509056978</v>
+        <v>8.921550700012203</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1553477577294796</v>
+        <v>0.392448304073462</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.04910412729421</v>
+        <v>80.47586914999356</v>
       </c>
       <c r="C54" t="n">
-        <v>3.89622895553539</v>
+        <v>8.606109696323593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6499499209731497</v>
+        <v>0.1812391543327017</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.26100311570485</v>
+        <v>82.59801765960246</v>
       </c>
       <c r="C55" t="n">
-        <v>5.44446268278245</v>
+        <v>7.360883235411603</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8909247423191426</v>
+        <v>0.3655587691811024</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.90755962970452</v>
+        <v>83.29239181778371</v>
       </c>
       <c r="C56" t="n">
-        <v>5.305550304464389</v>
+        <v>5.609662213490324</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6528867284122718</v>
+        <v>0.0786930691085013</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>56.60156415155705</v>
+        <v>84.50226226447099</v>
       </c>
       <c r="C57" t="n">
-        <v>5.338171290316064</v>
+        <v>5.676317790693766</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2980015849674549</v>
+        <v>0.249700127295019</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>57.1312303240126</v>
+        <v>85.59109373730811</v>
       </c>
       <c r="C58" t="n">
-        <v>5.055860689678454</v>
+        <v>10.96780478433645</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5602786054528477</v>
+        <v>0.3805870524061272</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57.18103552361934</v>
+        <v>86.18552072272259</v>
       </c>
       <c r="C59" t="n">
-        <v>2.605660453578359</v>
+        <v>4.094188526595499</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4369688080536527</v>
+        <v>0.1450595955129686</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57.73645357961298</v>
+        <v>86.57442135328373</v>
       </c>
       <c r="C60" t="n">
-        <v>5.803514125214263</v>
+        <v>6.507077918125261</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6369613603942945</v>
+        <v>0.1965929398657933</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>58.93269316563171</v>
+        <v>86.60061725210973</v>
       </c>
       <c r="C61" t="n">
-        <v>5.108415872706543</v>
+        <v>1.824017817817436</v>
       </c>
       <c r="D61" t="n">
-        <v>0.450546319043005</v>
+        <v>0.2371121701150599</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>58.96817089890072</v>
+        <v>90.89979349945813</v>
       </c>
       <c r="C62" t="n">
-        <v>3.338584989959623</v>
+        <v>5.277069637937435</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3281574284231854</v>
+        <v>0.4874558258347482</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>59.60495605382018</v>
+        <v>91.53942363459352</v>
       </c>
       <c r="C63" t="n">
-        <v>5.736697347678977</v>
+        <v>4.016293416432726</v>
       </c>
       <c r="D63" t="n">
-        <v>0.360937581746279</v>
+        <v>0.6349245968383093</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>60.64280822367916</v>
+        <v>92.64123065419982</v>
       </c>
       <c r="C64" t="n">
-        <v>5.264014634125989</v>
+        <v>7.605065701057518</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4880113293134701</v>
+        <v>0.4447539741577762</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>61.00142892736523</v>
+        <v>95.28027284109331</v>
       </c>
       <c r="C65" t="n">
-        <v>3.578792326262068</v>
+        <v>4.760901497958577</v>
       </c>
       <c r="D65" t="n">
-        <v>0.68350911077507</v>
+        <v>0.1766508501721716</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62.19478832593021</v>
+        <v>95.62059250754841</v>
       </c>
       <c r="C66" t="n">
-        <v>1.500450394980554</v>
+        <v>6.824180858200318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2785107797552432</v>
+        <v>0.4531105535661677</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>62.26918129535691</v>
+        <v>97.26617101624201</v>
       </c>
       <c r="C67" t="n">
-        <v>4.875855212715502</v>
+        <v>6.306681190734166</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4736127309130378</v>
+        <v>0.1859799938048744</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62.52716917995487</v>
+        <v>98.45025503757435</v>
       </c>
       <c r="C68" t="n">
-        <v>6.439291287310184</v>
+        <v>6.502943902174589</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6020730357243147</v>
+        <v>0.5769940880708081</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>64.5029203008021</v>
+        <v>99.34628911663391</v>
       </c>
       <c r="C69" t="n">
-        <v>5.097949298006944</v>
+        <v>5.497677278521435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5092263722902147</v>
+        <v>0.1640470154504941</v>
       </c>
     </row>
     <row r="70">
@@ -1407,503 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>65.02024860935251</v>
+        <v>99.45465789957274</v>
       </c>
       <c r="C70" t="n">
-        <v>2.965311179772375</v>
+        <v>5.413673147724094</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3493132030755856</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>65.50161672722037</v>
-      </c>
-      <c r="C71" t="n">
-        <v>8.288661028025579</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.3419586975502328</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>67.50354750086301</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.14831990718596</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.3606643876348917</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>70.32510245223096</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.380865111237187</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.3008118712908862</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>71.67136743240155</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.238310731492586</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.2895395024419041</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>71.99753327235051</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.719974737497637</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.2436673322977846</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>72.66022762202338</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4.079227698461064</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.5925246449896753</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>73.30026985309321</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.523652053624176</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.5643611679000405</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>73.54923125084099</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6.544995973908264</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.37687568225657</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>74.92380821327397</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.421163716302746</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4349279003067902</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>75.74468222080195</v>
-      </c>
-      <c r="C80" t="n">
-        <v>5.372628019962672</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.3326233172687053</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>75.86121026469465</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.130763360841076</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.3486311111048569</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>79.08895246208702</v>
-      </c>
-      <c r="C82" t="n">
-        <v>5.999547702993646</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.6310951902667505</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>80.06434875728199</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.005671417854607</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.356075736602588</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>81.00475688901892</v>
-      </c>
-      <c r="C84" t="n">
-        <v>4.986969572182938</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.2523101115235087</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>81.42126499011569</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.16935723344945</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.5227661308607717</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>81.56121980820934</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5.471855282855184</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.6984034785025558</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>83.74213978613999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.009446239439553</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.468197997237422</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>83.7856996789267</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4.262366001588074</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4453675250025349</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>84.72629191432308</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.58569679552944</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.5106255679326823</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>84.73557222364498</v>
-      </c>
-      <c r="C90" t="n">
-        <v>3.483120744710092</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.2088180178973081</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>86.59621020673578</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4.136398099759689</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.508202297926542</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>86.79985601194618</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.689796225437035</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.3879686765786088</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>88.02777717077547</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.881743236582761</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.6706434222050729</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>88.25705673089216</v>
-      </c>
-      <c r="C94" t="n">
-        <v>4.169908176376696</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.5870191720575934</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>88.38710033765933</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.706419548917187</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.3652462943704098</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>90.04263631339417</v>
-      </c>
-      <c r="C96" t="n">
-        <v>4.156790684157509</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.4350173941015149</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>91.46471357661574</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.943674556295229</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.2864907190462584</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>93.19371614918133</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.199798076647046</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.3259022310332085</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>93.2124924873557</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.658928166352765</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.3815642405378601</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>94.70683710347888</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.047050627921601</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.545463172723589</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>95.00382751534289</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.176043282103317</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.8033497171932482</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>95.35108582048808</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.700718307226656</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.4077759755405508</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>96.94917888761758</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.754464343536151</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.8025379989868489</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>97.38204986611865</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4.616280858794331</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.298129456577789</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>99.95652225396032</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.586434158407572</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.2341782603760434</v>
+        <v>0.3301808939971402</v>
       </c>
     </row>
   </sheetData>
